--- a/bin/Debug/net6.0-windows/ComprovanteReserva.xlsx
+++ b/bin/Debug/net6.0-windows/ComprovanteReserva.xlsx
@@ -20,31 +20,31 @@
     <t>Nome do Cliente:</t>
   </si>
   <si>
-    <t>Phillip</t>
+    <t>Jonas</t>
   </si>
   <si>
     <t>Modelo do Carro:</t>
   </si>
   <si>
-    <t>Monza</t>
+    <t>Fusca</t>
   </si>
   <si>
     <t>Placa do Carro:</t>
   </si>
   <si>
-    <t>594-BRR</t>
+    <t>273-FOU</t>
   </si>
   <si>
     <t>Data da reserva:</t>
   </si>
   <si>
-    <t>08/11/2023 17:00:00</t>
+    <t>08/11/2023 18:00:00</t>
   </si>
   <si>
     <t>Código da reserva:</t>
   </si>
   <si>
-    <t>5816</t>
+    <t>8819</t>
   </si>
 </sst>
 </file>

--- a/bin/Debug/net6.0-windows/ComprovanteReserva.xlsx
+++ b/bin/Debug/net6.0-windows/ComprovanteReserva.xlsx
@@ -20,31 +20,31 @@
     <t>Nome do Cliente:</t>
   </si>
   <si>
-    <t>Jonas</t>
+    <t>Phillip</t>
   </si>
   <si>
     <t>Modelo do Carro:</t>
   </si>
   <si>
-    <t>Fusca</t>
+    <t>Monza</t>
   </si>
   <si>
     <t>Placa do Carro:</t>
   </si>
   <si>
-    <t>273-FOU</t>
+    <t>594-BRR</t>
   </si>
   <si>
     <t>Data da reserva:</t>
   </si>
   <si>
-    <t>08/11/2023 18:00:00</t>
+    <t>09/11/2023 22:00:00</t>
   </si>
   <si>
     <t>Código da reserva:</t>
   </si>
   <si>
-    <t>8819</t>
+    <t>7138</t>
   </si>
 </sst>
 </file>

--- a/bin/Debug/net6.0-windows/ComprovanteReserva.xlsx
+++ b/bin/Debug/net6.0-windows/ComprovanteReserva.xlsx
@@ -20,31 +20,31 @@
     <t>Nome do Cliente:</t>
   </si>
   <si>
-    <t>Phillip</t>
+    <t>Jonas</t>
   </si>
   <si>
     <t>Modelo do Carro:</t>
   </si>
   <si>
-    <t>Monza</t>
+    <t>Fusca</t>
   </si>
   <si>
     <t>Placa do Carro:</t>
   </si>
   <si>
-    <t>594-BRR</t>
+    <t>273-FOU</t>
   </si>
   <si>
     <t>Data da reserva:</t>
   </si>
   <si>
-    <t>09/11/2023 22:00:00</t>
+    <t>10/11/2023 15:00:00</t>
   </si>
   <si>
     <t>Código da reserva:</t>
   </si>
   <si>
-    <t>7138</t>
+    <t>9129</t>
   </si>
 </sst>
 </file>

--- a/bin/Debug/net6.0-windows/ComprovanteReserva.xlsx
+++ b/bin/Debug/net6.0-windows/ComprovanteReserva.xlsx
@@ -20,31 +20,31 @@
     <t>Nome do Cliente:</t>
   </si>
   <si>
-    <t>Jonas</t>
+    <t>Fernanda</t>
   </si>
   <si>
     <t>Modelo do Carro:</t>
   </si>
   <si>
-    <t>Fusca</t>
+    <t>HB20</t>
   </si>
   <si>
     <t>Placa do Carro:</t>
   </si>
   <si>
-    <t>273-FOU</t>
+    <t>820-XXA</t>
   </si>
   <si>
     <t>Data da reserva:</t>
   </si>
   <si>
-    <t>10/11/2023 15:00:00</t>
+    <t>10/11/2023 23:00:00</t>
   </si>
   <si>
     <t>Código da reserva:</t>
   </si>
   <si>
-    <t>9129</t>
+    <t>8160</t>
   </si>
 </sst>
 </file>
